--- a/03_ips_clean/99_coefs.xlsx
+++ b/03_ips_clean/99_coefs.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.210015919514759</v>
+        <v>0.144224824685715</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.442746235946142</v>
+        <v>0.4179271137421</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.380935659626031</v>
+        <v>0.46298807126105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0676356052861083</v>
+        <v>0.0572041752120773</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.574107695959022</v>
+        <v>0.0500923428320895</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.16791355596789</v>
+        <v>0.253051866997579</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.127089605832078</v>
+        <v>0.688350595617186</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.488077740823241</v>
+        <v>0.0385357915393103</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.425387567725639</v>
+        <v>0.401534343478692</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0273414447468074</v>
+        <v>0.0289684862356343</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.197241868746489</v>
+        <v>0.201023573873398</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.320428084378348</v>
+        <v>0.338706610125542</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.194392354874571</v>
+        <v>0.197418414026358</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0320637154148</v>
+        <v>0.0365590276042801</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.00458957459104303</v>
+        <v>0.0352524404264423</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.945874896387519</v>
+        <v>0.620173540603422</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0277771762124618</v>
+        <v>0.345783685446419</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.00140547908776057</v>
+        <v>0.0409233601077701</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.665034906683863</v>
+        <v>0.686279141430231</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.24687741068643</v>
+        <v>0.27894878156222</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.109184757738128</v>
+        <v>0.0694555525133838</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.00962899004594385</v>
+        <v>-0.045332574500825</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.142235774178239</v>
+        <v>0.651074238362871</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.115694404774348</v>
+        <v>0.286518821180841</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.475930974734053</v>
+        <v>0.0859439287188909</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.0765445659443123</v>
+        <v>0.0484593984171848</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.356707163950004</v>
+        <v>0.0348745835085473</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.634791415522676</v>
+        <v>0.537210491859705</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.136067515181238</v>
+        <v>0.267150565667853</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.131208182132416</v>
+        <v>0.0937444877361151</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.209875605752746</v>
+        <v>0.206599104763492</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.010451729721717</v>
+        <v>0.0493247308602022</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.174688640025537</v>
+        <v>0.184421616982797</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0310195177832359</v>
+        <v>0.0916295543816123</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0497084254912713</v>
+        <v>0.11790509323629</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.301246064404781</v>
+        <v>0.225317050602373</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.528455386710249</v>
+        <v>0.527175043370673</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.00639558697364384</v>
+        <v>0.0504090655570513</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.734023995215724</v>
+        <v>0.559218958872528</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.135586469240416</v>
+        <v>0.263543404292093</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.0723296432578202</v>
+        <v>0.10162766835581</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0804970329353421</v>
+        <v>0.0511846159308557</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.11612392008183</v>
+        <v>0.133184394120326</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>

--- a/03_ips_clean/99_coefs.xlsx
+++ b/03_ips_clean/99_coefs.xlsx
@@ -395,7 +395,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.144224824685715</v>
+        <v>0.0634399144027651</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4179271137421</v>
+        <v>0.529571125505344</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.46298807126105</v>
+        <v>0.368216729065899</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0572041752120773</v>
+        <v>0.121559841878208</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0103437747366556</v>
+        <v>0.157395320174208</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0359092359579842</v>
+        <v>0.0687102562110829</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.0655520699116892</v>
+        <v>0.318237494773063</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.02936695556329</v>
+        <v>0.55173540058696</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0454001475672314</v>
+        <v>0.0640221469966626</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.367740855175264</v>
+        <v>0.358398918288586</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.34266785552315</v>
+        <v>1.33911179639196</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.0914421203968294</v>
+        <v>-0.0810340848925259</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.241878397483612</v>
+        <v>-0.243065822332974</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.184421616982797</v>
+        <v>0.18255301273989</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0916295543816123</v>
+        <v>0.0935512329634174</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.11790509323629</v>
+        <v>0.121940859917919</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.225317050602373</v>
+        <v>0.221354355519726</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.527175043370673</v>
+        <v>0.528153482988579</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
